--- a/Manual Testing.xlsx
+++ b/Manual Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ECF6A48-A432-4BC2-B9F0-C27AAC4A1A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00995F58-55A7-455E-AB09-6851A071E47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{16AA2EF9-9B8A-49B4-AC67-F425B7BCBB2C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Project Name:</t>
   </si>
@@ -195,6 +195,42 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>TC-ERP-Login-003</t>
+  </si>
+  <si>
+    <t>Exter a invalid
+username &amp; an valid password</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username
+2. Enter valid password
+3. Click on the login button</t>
+  </si>
+  <si>
+    <t>Username:
+xxxxxxxx
+Password:
+P@ss0rd</t>
+  </si>
+  <si>
+    <t>TC-ERP-Login-004</t>
+  </si>
+  <si>
+    <t>Exter a invalid
+username &amp; an invalid password</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username
+2. Enter invalid password
+3. Click on the login button</t>
+  </si>
+  <si>
+    <t>Username:
+xxxxxxxx
+Password:
+yyyyyyyy</t>
   </si>
 </sst>
 </file>
@@ -205,7 +241,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,16 +257,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -238,36 +294,594 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -278,6 +892,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16119FC2-7CED-4EFA-8A98-E40088B86AA4}" name="Table1" displayName="Table1" ref="A9:N13" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{235D4FCE-AC7F-455F-A04C-7B9D86A14AA7}" name="Test Scenario ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{3AD87530-7FF1-4B66-A0FA-75B3D53D92C9}" name="Test Scenario_x000a_Description" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{0EA08368-74B4-4047-BEB1-17647AB7E13E}" name="Test Case_x000a_ID" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{4813EE18-0CFD-4B3A-BF3B-676CF46D71F6}" name="Test Case_x000a_Description" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{6BA1812D-BE32-436E-AABB-3F6F22A67A55}" name="Test Steps" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{A4039989-FF23-4B74-904E-0DEB8AFABEE6}" name="Pre-_x000a_Condition" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{FB15635F-190D-425F-8820-010C6FFE0058}" name="Test Data" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{23DC3A95-AAEB-47C2-8812-1C67E9047B58}" name="Post-_x000a_Condition" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{10BAAAD8-3CDC-40A9-A4A0-44E09A11358F}" name="Expected Result" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{4B662981-C9D7-4496-9BB1-C25D2AE93D74}" name="Actual Result" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{BE719CD7-C713-45F3-8222-E9D0ABED7D22}" name="Status" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{13CB847F-D766-49CA-8C3F-6F748F63BD0C}" name="Executed By" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{10D82DA4-519E-4316-B101-7D533FEC5EDE}" name="Execution_x000a_Date" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{1E5EC0D5-C765-4288-BD88-235BB2DB8AE5}" name="Comments_x000a_(If any)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,308 +1213,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A5DF1D-D1AA-4CA4-ADFD-2875E2CACEF2}">
-  <dimension ref="A3:N18"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.26953125" customWidth="1"/>
     <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
     <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" customWidth="1"/>
     <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>44741</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44741</v>
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>44755</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44755</v>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>20</v>
+    <row r="10" spans="1:14" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="23">
+        <v>414008</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="C11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="G11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="7">
-        <v>414008</v>
-      </c>
-      <c r="N11" s="4" t="s">
+      <c r="M11" s="24">
+        <v>414009</v>
+      </c>
+      <c r="N11" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:14" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="C12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="7">
-        <v>414009</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="M12" s="23">
+        <v>414010</v>
+      </c>
+      <c r="N12" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+    <row r="13" spans="1:14" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="24">
+        <v>414010</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Manual Testing.xlsx
+++ b/Manual Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00995F58-55A7-455E-AB09-6851A071E47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DA1335-66D0-44A0-9DE5-066EB071D24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{16AA2EF9-9B8A-49B4-AC67-F425B7BCBB2C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Project Name:</t>
   </si>
@@ -231,6 +231,9 @@
 xxxxxxxx
 Password:
 yyyyyyyy</t>
+  </si>
+  <si>
+    <t>Testing Conclusiong:</t>
   </si>
 </sst>
 </file>
@@ -238,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +268,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +296,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -438,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -452,10 +469,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,12 +517,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,6 +556,30 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -554,6 +601,29 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -577,6 +647,29 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -598,6 +691,29 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -619,6 +735,29 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -640,6 +779,29 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -656,6 +818,57 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -691,196 +904,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -895,21 +918,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16119FC2-7CED-4EFA-8A98-E40088B86AA4}" name="Table1" displayName="Table1" ref="A9:N13" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16119FC2-7CED-4EFA-8A98-E40088B86AA4}" name="Table1" displayName="Table1" ref="A9:N13" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{235D4FCE-AC7F-455F-A04C-7B9D86A14AA7}" name="Test Scenario ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{3AD87530-7FF1-4B66-A0FA-75B3D53D92C9}" name="Test Scenario_x000a_Description" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{0EA08368-74B4-4047-BEB1-17647AB7E13E}" name="Test Case_x000a_ID" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{4813EE18-0CFD-4B3A-BF3B-676CF46D71F6}" name="Test Case_x000a_Description" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{6BA1812D-BE32-436E-AABB-3F6F22A67A55}" name="Test Steps" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{A4039989-FF23-4B74-904E-0DEB8AFABEE6}" name="Pre-_x000a_Condition" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{FB15635F-190D-425F-8820-010C6FFE0058}" name="Test Data" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{23DC3A95-AAEB-47C2-8812-1C67E9047B58}" name="Post-_x000a_Condition" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{10BAAAD8-3CDC-40A9-A4A0-44E09A11358F}" name="Expected Result" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{4B662981-C9D7-4496-9BB1-C25D2AE93D74}" name="Actual Result" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{BE719CD7-C713-45F3-8222-E9D0ABED7D22}" name="Status" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{13CB847F-D766-49CA-8C3F-6F748F63BD0C}" name="Executed By" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{10D82DA4-519E-4316-B101-7D533FEC5EDE}" name="Execution_x000a_Date" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{235D4FCE-AC7F-455F-A04C-7B9D86A14AA7}" name="Test Scenario ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{3AD87530-7FF1-4B66-A0FA-75B3D53D92C9}" name="Test Scenario_x000a_Description" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{0EA08368-74B4-4047-BEB1-17647AB7E13E}" name="Test Case_x000a_ID" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{4813EE18-0CFD-4B3A-BF3B-676CF46D71F6}" name="Test Case_x000a_Description" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{6BA1812D-BE32-436E-AABB-3F6F22A67A55}" name="Test Steps" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{A4039989-FF23-4B74-904E-0DEB8AFABEE6}" name="Pre-_x000a_Condition" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{FB15635F-190D-425F-8820-010C6FFE0058}" name="Test Data" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{23DC3A95-AAEB-47C2-8812-1C67E9047B58}" name="Post-_x000a_Condition" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{10BAAAD8-3CDC-40A9-A4A0-44E09A11358F}" name="Expected Result" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{4B662981-C9D7-4496-9BB1-C25D2AE93D74}" name="Actual Result" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{BE719CD7-C713-45F3-8222-E9D0ABED7D22}" name="Status" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{13CB847F-D766-49CA-8C3F-6F748F63BD0C}" name="Executed By" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{10D82DA4-519E-4316-B101-7D533FEC5EDE}" name="Execution_x000a_Date" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{1E5EC0D5-C765-4288-BD88-235BB2DB8AE5}" name="Comments_x000a_(If any)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1215,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A5DF1D-D1AA-4CA4-ADFD-2875E2CACEF2}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1245,6 +1268,17 @@
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="25">
+        <f>COUNTIF(Table1[Status],"Pass")</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="26">
+        <f>F2/$F$4</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1253,6 +1287,17 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="25">
+        <f>COUNTIF(Table1[Status],"fail")</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="26">
+        <f>F3/$F$4</f>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1261,6 +1306,15 @@
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25">
+        <f>SUM(F2:F3)</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="26">
+        <f>SUM(G2:G3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1268,6 +1322,14 @@
       </c>
       <c r="B5" s="7">
         <v>44741</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28" t="str">
+        <f>IF(G2&gt;=0.75,"Accepted","Rejected")</f>
+        <v>Rejected</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1572,6 +1634,9 @@
       <c r="N17" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
